--- a/第二反復/振り返り/メトリクス.xlsx
+++ b/第二反復/振り返り/メトリクス.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研修課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研修課題\2020-06\Lv50\Level50\第二反復\振り返り\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11112C-8D7C-4D56-9E47-B3724F53619C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF71AD0-C7A1-4CF7-B01A-08B6F56B3A70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F56169-4B9C-4EF4-A283-38621E448CD7}"/>
   </bookViews>
@@ -219,10 +219,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>属性がいろんなメソッドを使用しているので変更時の影響が大きい</t>
-  </si>
-  <si>
-    <t>解決策:使いたいときは専用のメソッドを経由して値をとる</t>
+    <t>属性がいろんなメソッドを使用しているので変更時の影響が大きい
+一つのクラスに関連が集中している</t>
+    <rPh sb="31" eb="32">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決策:使いたいときは専用のメソッドを経由して値をとる
+クラスを分ける</t>
     <rPh sb="0" eb="3">
       <t>カイケツサク</t>
     </rPh>
@@ -237,6 +249,9 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,13 +340,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +665,7 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -660,7 +675,7 @@
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
@@ -690,12 +705,12 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -710,10 +725,10 @@
       <c r="E4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -728,10 +743,10 @@
       <c r="E5" s="1">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -746,10 +761,10 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -764,12 +779,12 @@
       <c r="E7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +797,7 @@
       <c r="E8" s="1">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -794,11 +809,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+    <row r="11" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
